--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_8_7.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_8_7.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_24</t>
+          <t>model_8_7_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4496136319796918</v>
+        <v>-0.3481427032956579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3276049752370999</v>
+        <v>-3.923842310695965</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9058312154160786</v>
+        <v>0.5053576727439146</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1579468692250772</v>
+        <v>-1.555321257978936</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6091155409812927</v>
+        <v>1.491996765136719</v>
       </c>
       <c r="G2" t="n">
-        <v>1.224602341651917</v>
+        <v>6.318493366241455</v>
       </c>
       <c r="H2" t="n">
-        <v>2.799558639526367</v>
+        <v>0.8193596005439758</v>
       </c>
       <c r="I2" t="n">
-        <v>1.965759515762329</v>
+        <v>3.73066520690918</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_23</t>
+          <t>model_8_7_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4544490876894551</v>
+        <v>-0.2734161910119668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3281659861917082</v>
+        <v>-3.861244881459479</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8809042920852113</v>
+        <v>0.592954153361462</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1474776266984097</v>
+        <v>-1.479419678856817</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6037641167640686</v>
+        <v>1.40929639339447</v>
       </c>
       <c r="G3" t="n">
-        <v>1.223580718040466</v>
+        <v>6.238165378570557</v>
       </c>
       <c r="H3" t="n">
-        <v>2.762942552566528</v>
+        <v>0.6742587089538574</v>
       </c>
       <c r="I3" t="n">
-        <v>1.947986602783203</v>
+        <v>3.619852066040039</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_21</t>
+          <t>model_8_7_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4600499188016018</v>
+        <v>-0.26143623276971</v>
       </c>
       <c r="C4" t="n">
-        <v>0.323118250326512</v>
+        <v>-3.198286719001937</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8437601976058209</v>
+        <v>0.431631975987819</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1352171722826072</v>
+        <v>-1.257059333967478</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5975656509399414</v>
+        <v>1.396038174629211</v>
       </c>
       <c r="G4" t="n">
-        <v>1.232773780822754</v>
+        <v>5.387428283691406</v>
       </c>
       <c r="H4" t="n">
-        <v>2.708379745483398</v>
+        <v>0.9414839744567871</v>
       </c>
       <c r="I4" t="n">
-        <v>1.927172899246216</v>
+        <v>3.295214653015137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_22</t>
+          <t>model_8_7_0</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4612583549759139</v>
+        <v>-0.116232761665783</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3244104062025948</v>
+        <v>-1.562819590997329</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8394618980756077</v>
+        <v>0.0630880305856486</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1327369090725563</v>
+        <v>-0.6928051578191672</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5962281823158264</v>
+        <v>1.235340714454651</v>
       </c>
       <c r="G5" t="n">
-        <v>1.230420589447021</v>
+        <v>3.288723945617676</v>
       </c>
       <c r="H5" t="n">
-        <v>2.702065944671631</v>
+        <v>1.551965355873108</v>
       </c>
       <c r="I5" t="n">
-        <v>1.922962665557861</v>
+        <v>2.471426725387573</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_20</t>
+          <t>model_8_7_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.469789990683695</v>
+        <v>0.04647971175569909</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3244954595496741</v>
+        <v>-2.547662252658538</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.793961587849515</v>
+        <v>0.805721982135158</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1141628252689766</v>
+        <v>-0.7545830994716505</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5867862701416016</v>
+        <v>1.05526602268219</v>
       </c>
       <c r="G6" t="n">
-        <v>1.230265617370605</v>
+        <v>4.552517890930176</v>
       </c>
       <c r="H6" t="n">
-        <v>2.635228633880615</v>
+        <v>0.3218154907226562</v>
       </c>
       <c r="I6" t="n">
-        <v>1.891430377960205</v>
+        <v>2.561619997024536</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_19</t>
+          <t>model_8_7_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4723538474929113</v>
+        <v>0.33972322169777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3188622650204214</v>
+        <v>-1.128130688212573</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7719446965848555</v>
+        <v>0.8500733804426995</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1083967457167541</v>
+        <v>-0.07033344762694993</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5839487910270691</v>
+        <v>0.7307318449020386</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240525126457214</v>
+        <v>2.730912208557129</v>
       </c>
       <c r="H7" t="n">
-        <v>2.602887153625488</v>
+        <v>0.2483487725257874</v>
       </c>
       <c r="I7" t="n">
-        <v>1.881641983985901</v>
+        <v>1.56264328956604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_17</t>
+          <t>model_8_7_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.476336502850172</v>
+        <v>0.5156152873789634</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3059036069684611</v>
+        <v>-0.4178553669616432</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7299157618130221</v>
+        <v>0.6085465405639059</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.09863914500502746</v>
+        <v>0.1312188278450134</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5795412063598633</v>
+        <v>0.5360711216926575</v>
       </c>
       <c r="G8" t="n">
-        <v>1.264126062393188</v>
+        <v>1.819455027580261</v>
       </c>
       <c r="H8" t="n">
-        <v>2.541148900985718</v>
+        <v>0.6484304666519165</v>
       </c>
       <c r="I8" t="n">
-        <v>1.865077137947083</v>
+        <v>1.268385291099548</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_16</t>
+          <t>model_8_7_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4801870153745366</v>
+        <v>0.5772594360779271</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3146170565246551</v>
+        <v>-0.144954906624468</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7210355294866746</v>
+        <v>0.5345838137011412</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.09007039214977186</v>
+        <v>0.2187178136540027</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5752797722816467</v>
+        <v>0.4678492248058319</v>
       </c>
       <c r="G9" t="n">
-        <v>1.248256683349609</v>
+        <v>1.469257116317749</v>
       </c>
       <c r="H9" t="n">
-        <v>2.528104305267334</v>
+        <v>0.7709474563598633</v>
       </c>
       <c r="I9" t="n">
-        <v>1.850530624389648</v>
+        <v>1.140640139579773</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_18</t>
+          <t>model_8_7_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4810839867001118</v>
+        <v>0.5949153081662965</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3083325079248442</v>
+        <v>0.03359006000956044</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7096132868556382</v>
+        <v>0.4367195442608354</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.08899037015355638</v>
+        <v>0.2495473059154244</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5742871165275574</v>
+        <v>0.4483094215393066</v>
       </c>
       <c r="G10" t="n">
-        <v>1.259702444076538</v>
+        <v>1.240140318870544</v>
       </c>
       <c r="H10" t="n">
-        <v>2.511325836181641</v>
+        <v>0.9330565333366394</v>
       </c>
       <c r="I10" t="n">
-        <v>1.848697185516357</v>
+        <v>1.095630407333374</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_14</t>
+          <t>model_8_7_19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4854689989387593</v>
+        <v>0.6355903165920409</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3180099922327148</v>
+        <v>0.4881443171259162</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6965990249239522</v>
+        <v>-0.1056101476206188</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0781978346104053</v>
+        <v>0.1715002546677209</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5694342255592346</v>
+        <v>0.4032941460609436</v>
       </c>
       <c r="G11" t="n">
-        <v>1.242077231407166</v>
+        <v>0.6568359732627869</v>
       </c>
       <c r="H11" t="n">
-        <v>2.492208480834961</v>
+        <v>1.831408739089966</v>
       </c>
       <c r="I11" t="n">
-        <v>1.830375552177429</v>
+        <v>1.209576010704041</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_15</t>
+          <t>model_8_7_23</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4864864050430199</v>
+        <v>0.6362833648054876</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3224569644450132</v>
+        <v>0.492739863790121</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6975764262488899</v>
+        <v>-0.1063917963680419</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.07607247539361195</v>
+        <v>0.1732220219965886</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5683082342147827</v>
+        <v>0.4025271236896515</v>
       </c>
       <c r="G12" t="n">
-        <v>1.233978152275085</v>
+        <v>0.6509387493133545</v>
       </c>
       <c r="H12" t="n">
-        <v>2.493644237518311</v>
+        <v>1.832703471183777</v>
       </c>
       <c r="I12" t="n">
-        <v>1.826767563819885</v>
+        <v>1.207062244415283</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_13</t>
+          <t>model_8_7_22</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5045049339178092</v>
+        <v>0.6364157646142306</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3313417825126277</v>
+        <v>0.4929235002114769</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6141773475239241</v>
+        <v>-0.105924202991202</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.03706281133126699</v>
+        <v>0.1735527823833495</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5483670830726624</v>
+        <v>0.4023806154727936</v>
       </c>
       <c r="G13" t="n">
-        <v>1.217796802520752</v>
+        <v>0.6507031321525574</v>
       </c>
       <c r="H13" t="n">
-        <v>2.371135473251343</v>
+        <v>1.831928849220276</v>
       </c>
       <c r="I13" t="n">
-        <v>1.760543704032898</v>
+        <v>1.206579327583313</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_12</t>
+          <t>model_8_7_24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5052426470078737</v>
+        <v>0.6364231588087779</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3333206106153366</v>
+        <v>0.4925244564204331</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.6122717073875454</v>
+        <v>-0.1055470462020018</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03516413857234157</v>
+        <v>0.1735700971571591</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5475506186485291</v>
+        <v>0.402372419834137</v>
       </c>
       <c r="G14" t="n">
-        <v>1.214192748069763</v>
+        <v>0.6512151956558228</v>
       </c>
       <c r="H14" t="n">
-        <v>2.368336200714111</v>
+        <v>1.83130419254303</v>
       </c>
       <c r="I14" t="n">
-        <v>1.757320523262024</v>
+        <v>1.206553936004639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_11</t>
+          <t>model_8_7_21</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.509796490125924</v>
+        <v>0.6365134228169216</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3430873757672042</v>
+        <v>0.4934733890573527</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.6005651426652776</v>
+        <v>-0.1059527728253866</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.02485252974543939</v>
+        <v>0.1737972231503985</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5425108075141907</v>
+        <v>0.4022725224494934</v>
       </c>
       <c r="G15" t="n">
-        <v>1.196404933929443</v>
+        <v>0.6499974727630615</v>
       </c>
       <c r="H15" t="n">
-        <v>2.351140022277832</v>
+        <v>1.831976294517517</v>
       </c>
       <c r="I15" t="n">
-        <v>1.739815235137939</v>
+        <v>1.206222295761108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_10</t>
+          <t>model_8_7_20</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5182886158126121</v>
+        <v>0.6365574980818984</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3477813268903417</v>
+        <v>0.4936605675517753</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.561287278757606</v>
+        <v>-0.105909474542015</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.006189514974172639</v>
+        <v>0.1739081363194395</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5331125855445862</v>
+        <v>0.4022237360477448</v>
       </c>
       <c r="G16" t="n">
-        <v>1.187856197357178</v>
+        <v>0.6497572660446167</v>
       </c>
       <c r="H16" t="n">
-        <v>2.293443202972412</v>
+        <v>1.831904649734497</v>
       </c>
       <c r="I16" t="n">
-        <v>1.70813250541687</v>
+        <v>1.206060528755188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_1</t>
+          <t>model_8_7_18</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.520442584705801</v>
+        <v>0.6393256978476642</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6359481263857183</v>
+        <v>0.5049491437359589</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07237388575207326</v>
+        <v>-0.102769096955885</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4155050333217769</v>
+        <v>0.1808359662079231</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5307287573814392</v>
+        <v>0.3991601765155792</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6630310416221619</v>
+        <v>0.6352713108062744</v>
       </c>
       <c r="H17" t="n">
-        <v>1.362630605697632</v>
+        <v>1.82670259475708</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9922533631324768</v>
+        <v>1.195946216583252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_9</t>
+          <t>model_8_7_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.546501306425386</v>
+        <v>0.6393442131807334</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3613028218046699</v>
+        <v>0.5054345157930575</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.428646388456023</v>
+        <v>-0.103096012859671</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05550178065303812</v>
+        <v>0.1808886044980023</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5018894076347351</v>
+        <v>0.3991396725177765</v>
       </c>
       <c r="G18" t="n">
-        <v>1.163230061531067</v>
+        <v>0.6346484422683716</v>
       </c>
       <c r="H18" t="n">
-        <v>2.098601102828979</v>
+        <v>1.827244162559509</v>
       </c>
       <c r="I18" t="n">
-        <v>1.603403806686401</v>
+        <v>1.195869207382202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_8</t>
+          <t>model_8_7_16</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5480521799629411</v>
+        <v>0.6398139162598435</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3617043234437569</v>
+        <v>0.5077590900021137</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4204251848699172</v>
+        <v>-0.1029110465529197</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05908380845471772</v>
+        <v>0.182069849996419</v>
       </c>
       <c r="F19" t="n">
-        <v>0.500173032283783</v>
+        <v>0.3986198604106903</v>
       </c>
       <c r="G19" t="n">
-        <v>1.162498831748962</v>
+        <v>0.6316654682159424</v>
       </c>
       <c r="H19" t="n">
-        <v>2.086524486541748</v>
+        <v>1.826937794685364</v>
       </c>
       <c r="I19" t="n">
-        <v>1.597322821617126</v>
+        <v>1.194144606590271</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_0</t>
+          <t>model_8_7_15</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5560253821491626</v>
+        <v>0.6424927276945516</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6589628403409848</v>
+        <v>0.5112652818762047</v>
       </c>
       <c r="D20" t="n">
-        <v>0.406098680413957</v>
+        <v>-0.09329708598506414</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5644676270366921</v>
+        <v>0.1888326176626701</v>
       </c>
       <c r="F20" t="n">
-        <v>0.491349071264267</v>
+        <v>0.3956551849842072</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6211154460906982</v>
+        <v>0.6271660923957825</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8724076747894287</v>
+        <v>1.811012506484985</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7393706440925598</v>
+        <v>1.184271335601807</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_7</t>
+          <t>model_8_7_14</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5994847779026862</v>
+        <v>0.6454733502969633</v>
       </c>
       <c r="C21" t="n">
-        <v>0.391299168840856</v>
+        <v>0.5112364296772032</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1840390047162483</v>
+        <v>-0.0785588794435228</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1721416318464042</v>
+        <v>0.1966894596775595</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4432523548603058</v>
+        <v>0.3923565447330475</v>
       </c>
       <c r="G21" t="n">
-        <v>1.108599066734314</v>
+        <v>0.6272031664848328</v>
       </c>
       <c r="H21" t="n">
-        <v>1.739286661148071</v>
+        <v>1.786599159240723</v>
       </c>
       <c r="I21" t="n">
-        <v>1.405393004417419</v>
+        <v>1.172800660133362</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_6</t>
+          <t>model_8_7_12</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6372153639245308</v>
+        <v>0.6470163300712926</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4070555998387808</v>
+        <v>0.4434181808624107</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.001457116147387527</v>
+        <v>-0.0007133490040469592</v>
       </c>
       <c r="E22" t="n">
-        <v>0.255434550275302</v>
+        <v>0.2066951781528357</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4014956951141357</v>
+        <v>0.3906489014625549</v>
       </c>
       <c r="G22" t="n">
-        <v>1.079902648925781</v>
+        <v>0.7142305374145508</v>
       </c>
       <c r="H22" t="n">
-        <v>1.471084117889404</v>
+        <v>1.657650470733643</v>
       </c>
       <c r="I22" t="n">
-        <v>1.26399290561676</v>
+        <v>1.15819263458252</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_5</t>
+          <t>model_8_7_13</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7057066313407215</v>
+        <v>0.65193794622097</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4438870838659625</v>
+        <v>0.4924211624904572</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3271251140443131</v>
+        <v>-0.02965048215907262</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4101554439811083</v>
+        <v>0.2140461683281487</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3256960511207581</v>
+        <v>0.3852021396160126</v>
       </c>
       <c r="G23" t="n">
-        <v>1.012823104858398</v>
+        <v>0.6513477563858032</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9884153604507446</v>
+        <v>1.705584049224854</v>
       </c>
       <c r="I23" t="n">
-        <v>1.0013347864151</v>
+        <v>1.147460579872131</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_4</t>
+          <t>model_8_7_11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7200362296418839</v>
+        <v>0.6724227544034771</v>
       </c>
       <c r="C24" t="n">
-        <v>0.45193158731897</v>
+        <v>0.4318192861271871</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3984780893113755</v>
+        <v>0.1514664257265504</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4437759387946996</v>
+        <v>0.2825498998374109</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3098374009132385</v>
+        <v>0.362531453371048</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9981719255447388</v>
+        <v>0.7291147708892822</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8836017847061157</v>
+        <v>1.405569314956665</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9442597627639771</v>
+        <v>1.047447919845581</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_3</t>
+          <t>model_8_7_9</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.822753315503963</v>
+        <v>0.6897162846891278</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5522643964399583</v>
+        <v>0.3520840029069305</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8416592986619627</v>
+        <v>0.5578149274031472</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6812257025987789</v>
+        <v>0.4624078936717247</v>
       </c>
       <c r="F25" t="n">
-        <v>0.196159839630127</v>
+        <v>0.3433926403522491</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8154404163360596</v>
+        <v>0.8314345479011536</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2325935959815979</v>
+        <v>0.7324658036231995</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5411591529846191</v>
+        <v>0.7848625183105469</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_2</t>
+          <t>model_8_7_10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8242089302149539</v>
+        <v>0.7035704685378332</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5618630280780468</v>
+        <v>0.5484584081870258</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8463543384969645</v>
+        <v>0.2962096172653599</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6885898562169381</v>
+        <v>0.4141103309631925</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1945489197969437</v>
+        <v>0.3280601501464844</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7979588508605957</v>
+        <v>0.579438328742981</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2256968319416046</v>
+        <v>1.165806889533997</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5286576151847839</v>
+        <v>0.8553750514984131</v>
       </c>
     </row>
   </sheetData>
